--- a/imageCreationExcel/back/112/112_1.xlsx
+++ b/imageCreationExcel/back/112/112_1.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,30 +495,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8749086871454197</v>
+        <v>1.002456517481565</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8174366618506362</v>
+        <v>0.7468436381372975</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5.708384733928948</v>
+        <v>0.804077434199168</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_S_contrast0.875_sharpness0.817_equalization5.708.jpg</t>
+          <t>1_1_contrast1.002_gamma0.747_sharpness0.804.jpg</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,30 +537,30 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7289544505917256</v>
+        <v>18.77861571573612</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.8220857715556594</v>
+        <v>1.167540136998261</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.1079023892160529</v>
+        <v>0.6529466543587934</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_S_brightness0.729_gamma0.822_sharpness0.108.jpg</t>
+          <t>2_I_brightness18.779_contrast1.168_gamma0.653.jpg</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6547351522637166</v>
+        <v>0.8141807806940344</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.9972494631164558</v>
+        <v>0.1792329577898335</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -595,14 +595,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>28.73438991102448</v>
+        <v>18.09396947043922</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_8_gamma0.655_sharpness0.997_equalization28.734.jpg</t>
+          <t>3_2_gamma0.814_sharpness0.179_equalization18.094.jpg</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8766440579394912</v>
+        <v>1.090859532528432</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.6782077216480129</v>
+        <v>0.6228036860915966</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10.34048770184035</v>
+        <v>23.47418507534855</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_S_contrast0.877_gamma0.678_equalization10.34.jpg</t>
+          <t>4_I_contrast1.091_gamma0.623_equalization23.474.jpg</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>23.28355868314505</v>
+        <v>16.05103089623911</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -671,22 +671,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.8457406260347166</v>
+        <v>1.110688097534403</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.7256256643263646</v>
+        <v>0.8811868534607283</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_3_brightness23.284_contrast0.846_gamma0.726.jpg</t>
+          <t>5_1_brightness16.051_contrast1.111_sharpness0.881.jpg</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>19.5712866945594</v>
+        <v>5.242017684173947</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.7862194506060213</v>
+        <v>0.6017702351240585</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -721,14 +721,14 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.2425871166525097</v>
+        <v>0.5397565050866604</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_T_brightness19.571_gamma0.786_sharpness0.243.jpg</t>
+          <t>6_1_brightness5.242_gamma0.602_sharpness0.54.jpg</t>
         </is>
       </c>
     </row>
@@ -738,16 +738,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9.426803417362054</v>
+        <v>1.133368379568073</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.8885416716976368</v>
+        <v>0.7111644912129218</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.4519835581677743</v>
+        <v>24.27870143827779</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_0_brightness9.427_gamma0.889_sharpness0.452.jpg</t>
+          <t>7_8_contrast1.133_gamma0.711_equalization24.279.jpg</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9056995109630686</v>
+        <v>1.030301695551364</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9667443944363217</v>
+        <v>1.050539334021314</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.2129977296424945</v>
+        <v>9.852215291580471</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_S_contrast0.906_gamma0.967_sharpness0.213.jpg</t>
+          <t>8_9_contrast1.03_gamma1.051_equalization9.852.jpg</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,15 +831,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.139246918800029</v>
+        <v>0.8916174784564828</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.9975434439679087</v>
+        <v>0.9538493965979387</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9.44882909525851</v>
+        <v>21.82162805730866</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_2_contrast1.139_gamma0.998_equalization9.449.jpg</t>
+          <t>9_0_contrast0.892_sharpness0.954_equalization21.822.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.965087247103111</v>
+        <v>15.65299956738652</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.5322189583623532</v>
+        <v>1.115661457177711</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>23.43501995866218</v>
+        <v>0.9721127575572128</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_1_gamma0.965_sharpness0.532_equalization23.435.jpg</t>
+          <t>10_9_brightness15.653_contrast1.116_sharpness0.972.jpg</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,30 +915,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.038826597396511</v>
+        <v>0.9585222599583273</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.5500455428806174</v>
+        <v>0.2714494101710022</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.3040467700206295</v>
+        <v>26.30960822566563</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_T_contrast1.039_gamma0.55_sharpness0.304.jpg</t>
+          <t>11_8_contrast0.959_sharpness0.271_equalization26.31.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12.48530618387518</v>
+        <v>0.5117709105462179</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9647233028318668</v>
+        <v>0.5412246474215826</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.6567374321332486</v>
+        <v>21.70912133595951</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_E_brightness12.485_contrast0.965_gamma0.657.jpg</t>
+          <t>12_2_gamma0.512_sharpness0.541_equalization21.709.jpg</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -999,30 +999,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6.424430275362161</v>
+        <v>6.207056917000382</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.8858396466795494</v>
+        <v>1.153528943528574</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.5791868682353301</v>
+        <v>0.9645670874155192</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_3_brightness6.424_gamma0.886_sharpness0.579.jpg</t>
+          <t>13_8_brightness6.207_contrast1.154_gamma0.965.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,16 +1032,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>16.80111549581071</v>
+        <v>0.8496176496479086</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1049,22 +1049,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.8612117778795415</v>
+        <v>0.7128229616111496</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.04421304513447881</v>
+        <v>14.56476863601412</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_I_brightness16.801_gamma0.861_sharpness0.044.jpg</t>
+          <t>14_T_contrast0.85_gamma0.713_equalization14.565.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.9857320840173408</v>
+        <v>1.172316108970149</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9121798146872705</v>
+        <v>0.7983898250227639</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1099,14 +1099,14 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.4875760523425057</v>
+        <v>0.5603526412521017</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_I_contrast0.986_gamma0.912_sharpness0.488.jpg</t>
+          <t>15_S_contrast1.172_gamma0.798_sharpness0.56.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17.27109550578096</v>
+        <v>8.193822401927928</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.042994806495305</v>
+        <v>0.6593833477040606</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1141,14 +1141,14 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.7761729524667809</v>
+        <v>0.4096322604722571</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_1_brightness17.271_gamma1.043_sharpness0.776.jpg</t>
+          <t>16_3_brightness8.194_gamma0.659_sharpness0.41.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,16 +1158,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9718322090867519</v>
+        <v>0.9205715835678525</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.5270276842052611</v>
+        <v>0.521601843179</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>25.71133789711124</v>
+        <v>17.36280835813783</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_8_gamma0.972_sharpness0.527_equalization25.711.jpg</t>
+          <t>17_T_contrast0.921_sharpness0.522_equalization17.363.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,24 +1200,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.037549991435827</v>
+        <v>0.7251138916033036</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.506463026016674</v>
+        <v>0.7637815567802251</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1225,14 +1225,14 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>9.368010287118565</v>
+        <v>20.0907481095782</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_9_contrast1.038_gamma0.506_equalization9.368.jpg</t>
+          <t>18_0_gamma0.725_sharpness0.764_equalization20.091.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1251,30 +1251,30 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>7.536695658777512</v>
+        <v>19.19779299486312</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.033073414965212</v>
+        <v>0.7291336049956749</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.8985131285384436</v>
+        <v>0.9268852801797771</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_8_brightness7.537_contrast1.033_gamma0.899.jpg</t>
+          <t>19_2_brightness19.198_gamma0.729_sharpness0.927.jpg</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>27.78552164541147</v>
+        <v>19.98544889085316</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.8953778947610912</v>
+        <v>1.174511419655517</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.1691576476184636</v>
+        <v>0.3182834141165167</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_7_brightness27.786_contrast0.895_sharpness0.169.jpg</t>
+          <t>20_7_brightness19.985_contrast1.175_sharpness0.318.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1335,30 +1335,30 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>14.47299967935855</v>
+        <v>11.9030879099466</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.199463515950524</v>
+        <v>0.5612237037659835</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.9463508963450535</v>
+        <v>0.8018764371266278</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_C_brightness14.473_contrast1.199_gamma0.946.jpg</t>
+          <t>21_8_brightness11.903_gamma0.561_sharpness0.802.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.9367594706824647</v>
+        <v>0.8578039081565227</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.8497851915397667</v>
+        <v>1.093346577223532</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.7972483560736697</v>
+        <v>0.4938650101026973</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_2_contrast0.937_gamma0.85_sharpness0.797.jpg</t>
+          <t>22_8_contrast0.858_gamma1.093_sharpness0.494.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,15 +1419,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>23.1834938737303</v>
+        <v>21.28227564688532</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.199382911305562</v>
+        <v>0.6136323790045776</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.5707434144762704</v>
+        <v>0.9193462468672455</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_3_brightness23.183_contrast1.199_sharpness0.571.jpg</t>
+          <t>23_0_brightness21.282_gamma0.614_sharpness0.919.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,39 +1452,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.082041773507354</v>
+        <v>17.7616337840576</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.05726408562090669</v>
+        <v>0.5811935995928966</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>17.97200200701993</v>
+        <v>0.2914767709449727</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_T_contrast1.082_sharpness0.057_equalization17.972.jpg</t>
+          <t>24_7_brightness17.762_gamma0.581_sharpness0.291.jpg</t>
         </is>
       </c>
     </row>
@@ -1503,30 +1503,30 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8167947544571776</v>
+        <v>0.8316819750977275</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9294983970170183</v>
+        <v>0.9647319351232686</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.07088711905815262</v>
+        <v>13.65575038342997</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_E_contrast0.817_gamma0.929_sharpness0.071.jpg</t>
+          <t>25_E_contrast0.832_sharpness0.965_equalization13.656.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,39 +1536,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.8044533679141432</v>
+        <v>10.91347321995436</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.6409260092501218</v>
+        <v>1.154684773972418</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>10.6101081006458</v>
+        <v>0.7070222161515418</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_9_gamma0.804_sharpness0.641_equalization10.61.jpg</t>
+          <t>26_C_brightness10.913_contrast1.155_sharpness0.707.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3.620613927849657</v>
+        <v>0.646037394464079</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.181201863243755</v>
+        <v>0.6592959349340688</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.9199260604574001</v>
+        <v>14.87572013674106</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_8_brightness3.621_contrast1.181_gamma0.92.jpg</t>
+          <t>27_T_gamma0.646_sharpness0.659_equalization14.876.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6.730220422139236</v>
+        <v>1.025602741646889</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.082284408977848</v>
+        <v>0.5810104497683273</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.7423641781059382</v>
+        <v>0.6134708296326532</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_0_brightness6.73_contrast1.082_gamma0.742.jpg</t>
+          <t>28_8_contrast1.026_gamma0.581_sharpness0.613.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.095068089192065</v>
+        <v>1.148964863048556</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.8140461039318377</v>
+        <v>0.5007659195133193</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.6127783445473196</v>
+        <v>0.7531939314401765</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_T_contrast1.095_gamma0.814_sharpness0.613.jpg</t>
+          <t>29_1_contrast1.149_gamma0.501_sharpness0.753.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1713,15 +1713,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6.832821896909644</v>
+        <v>23.46246626831357</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.8316973930343061</v>
+        <v>1.153722256178503</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.356796610579199</v>
+        <v>0.6271049363873406</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_P_brightness6.833_gamma0.832_sharpness0.357.jpg</t>
+          <t>30_8_brightness23.462_contrast1.154_sharpness0.627.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,16 +1746,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3.35749465371877</v>
+        <v>0.8178830989607579</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.5767323949840988</v>
+        <v>0.6333164794312359</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.2347701124108287</v>
+        <v>25.46462568767842</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_3_brightness3.357_gamma0.577_sharpness0.235.jpg</t>
+          <t>31_I_contrast0.818_gamma0.633_equalization25.465.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,24 +1788,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5.522064549000797</v>
+        <v>0.8528723177306622</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.060870970459968</v>
+        <v>0.7420288236189645</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.2522181475286037</v>
+        <v>0.7163274107858515</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_I_brightness5.522_contrast1.061_sharpness0.252.jpg</t>
+          <t>32_B_contrast0.853_gamma0.742_sharpness0.716.jpg</t>
         </is>
       </c>
     </row>
@@ -1835,34 +1835,34 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.103764650907229</v>
+        <v>14.12502904528221</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9568327802926682</v>
+        <v>1.067681030147496</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.4290170954344586</v>
+        <v>0.7134501931783841</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_T_contrast1.104_gamma0.957_sharpness0.429.jpg</t>
+          <t>33_T_brightness14.125_contrast1.068_gamma0.713.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,16 +1872,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.949290024732883</v>
+        <v>16.75003722357627</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.7790665702237987</v>
+        <v>0.6923754042492409</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.2861571152529165</v>
+        <v>0.03883402643002945</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_B_contrast0.949_gamma0.779_sharpness0.286.jpg</t>
+          <t>34_2_brightness16.75_gamma0.692_sharpness0.039.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,16 +1914,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.09051102091038</v>
+        <v>0.9465247264136409</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.6398861488928311</v>
+        <v>0.9186462262447792</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1939,14 +1939,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>31.32793445879717</v>
+        <v>6.412636093386446</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_8_gamma1.091_sharpness0.64_equalization31.328.jpg</t>
+          <t>35_9_contrast0.947_sharpness0.919_equalization6.413.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,16 +1956,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.9499259825100288</v>
+        <v>6.510069479557598</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9526404506909135</v>
+        <v>0.7010659953633583</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.9300671950783523</v>
+        <v>0.8866298965716627</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_3_contrast0.95_gamma0.953_sharpness0.93.jpg</t>
+          <t>36_E_brightness6.51_gamma0.701_sharpness0.887.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.9656239108818747</v>
+        <v>0.9703202899436697</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2015,22 +2015,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.5502604608060506</v>
+        <v>0.9492959894657059</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.1369795925752827</v>
+        <v>23.61497182561313</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_P_contrast0.966_gamma0.55_sharpness0.137.jpg</t>
+          <t>37_B_contrast0.97_gamma0.949_equalization23.615.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,24 +2040,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.881339974760862</v>
+        <v>1.024691585594861</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.000354866310408</v>
+        <v>1.169996626101577</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.8081117252361498</v>
+        <v>0.8006052644448556</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_E_contrast0.881_gamma1.0_sharpness0.808.jpg</t>
+          <t>38_0_brightness1.025_contrast1.17_sharpness0.801.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>10.45533108771321</v>
+        <v>29.81924517795765</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.9042118575627234</v>
+        <v>1.043560215667414</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.5536683672626059</v>
+        <v>1.037495082984876</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_8_brightness10.455_contrast0.904_gamma0.554.jpg</t>
+          <t>39_C_brightness29.819_contrast1.044_gamma1.037.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>15.10696374863484</v>
+        <v>13.50219173423941</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2141,22 +2141,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.185803900463336</v>
+        <v>1.12660004388201</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.09704665517592946</v>
+        <v>1.057139532412696</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_0_brightness15.107_contrast1.186_sharpness0.097.jpg</t>
+          <t>40_7_brightness13.502_contrast1.127_gamma1.057.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,15 +2175,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>20.61251476995494</v>
+        <v>16.49523172671555</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.7877331681979336</v>
+        <v>1.013016327449205</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.2940946605378921</v>
+        <v>0.3136517092537225</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_C_brightness20.613_gamma0.788_sharpness0.294.jpg</t>
+          <t>41_2_brightness16.495_contrast1.013_sharpness0.314.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>13.36191338910564</v>
+        <v>24.02152518688892</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2225,22 +2225,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.9296479259149801</v>
+        <v>0.8528214661964943</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1.004522404304313</v>
+        <v>0.7838503035929147</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_S_brightness13.362_contrast0.93_gamma1.005.jpg</t>
+          <t>42_9_brightness24.022_contrast0.853_sharpness0.784.jpg</t>
         </is>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.099090109626032</v>
+        <v>1.176002510912743</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.911519270302332</v>
+        <v>0.8549727818411522</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.1084450659032458</v>
+        <v>0.3017395245899825</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_C_contrast1.099_gamma0.912_sharpness0.108.jpg</t>
+          <t>43_C_contrast1.176_gamma0.855_sharpness0.302.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,24 +2292,24 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.6131980321939495</v>
+        <v>1.02716504067003</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.9951011103830392</v>
+        <v>0.7003627909733123</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>21.9313777234613</v>
+        <v>5.42007076744861</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_9_gamma0.613_sharpness0.995_equalization21.931.jpg</t>
+          <t>44_E_contrast1.027_gamma0.7_equalization5.42.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,16 +2334,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.8127734675029604</v>
+        <v>0.8672297181503698</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.9791334785636985</v>
+        <v>0.6122918325527178</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2359,14 +2359,14 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>10.92811113443863</v>
+        <v>29.08609070686184</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_C_contrast0.813_sharpness0.979_equalization10.928.jpg</t>
+          <t>45_3_gamma0.867_sharpness0.612_equalization29.086.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,24 +2376,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.025590923155473</v>
+        <v>0.6438423741430005</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.602323649143046</v>
+        <v>0.5855161506528692</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2401,14 +2401,14 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>17.89343131339258</v>
+        <v>18.83499290231314</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_T_contrast1.026_gamma0.602_equalization17.893.jpg</t>
+          <t>46_B_gamma0.644_sharpness0.586_equalization18.835.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,16 +2418,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>11.77289603377771</v>
+        <v>0.9864484435046479</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.9777695204297165</v>
+        <v>0.7833881294781013</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.2899037472441942</v>
+        <v>0.7013079128158412</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_T_brightness11.773_gamma0.978_sharpness0.29.jpg</t>
+          <t>47_3_contrast0.986_gamma0.783_sharpness0.701.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,39 +2460,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.25864288484286</v>
+        <v>0.9611299352263949</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.977882179168332</v>
+        <v>1.027969287355045</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.8227777390445097</v>
+        <v>19.688724866781</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_E_brightness1.259_contrast0.978_sharpness0.823.jpg</t>
+          <t>48_0_contrast0.961_gamma1.028_equalization19.689.jpg</t>
         </is>
       </c>
     </row>
